--- a/数据通路表、控制信号取值表.xlsx
+++ b/数据通路表、控制信号取值表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BA68D1-69B2-4669-9591-B8DA446A5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E329A-0128-419F-A828-E185A7449286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13455" yWindow="1035" windowWidth="21600" windowHeight="11835" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="2070" windowWidth="21585" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
     <sheet name="控制信号取值表" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="241">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +643,6 @@
   </si>
   <si>
     <t>rd_we</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_sel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1145,7 +1142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,6 +1216,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1558,93 +1558,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="3.4609375" customWidth="1"/>
+    <col min="2" max="2" width="10.4609375" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="8.875" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="6.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
-    <col min="10" max="10" width="16.625" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="25.5" customWidth="1"/>
-    <col min="14" max="14" width="7.375" customWidth="1"/>
+    <col min="4" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="8.84375" customWidth="1"/>
+    <col min="7" max="7" width="7.3828125" customWidth="1"/>
+    <col min="8" max="8" width="6.765625" customWidth="1"/>
+    <col min="9" max="9" width="16.15234375" customWidth="1"/>
+    <col min="10" max="10" width="16.61328125" customWidth="1"/>
+    <col min="11" max="11" width="15.765625" customWidth="1"/>
+    <col min="12" max="12" width="10.84375" customWidth="1"/>
+    <col min="13" max="13" width="25.4609375" customWidth="1"/>
+    <col min="14" max="14" width="7.3828125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="7.125" customWidth="1"/>
-    <col min="17" max="17" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="7.15234375" customWidth="1"/>
+    <col min="17" max="17" width="7.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="28"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="28"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q3" s="29"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>27</v>
@@ -1694,7 +1694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>39</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
         <v>40</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>41</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>44</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>61</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M21" s="15" t="s">
         <v>74</v>
@@ -2544,7 +2544,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
         <v>50</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>52</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
         <v>53</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="16" t="s">
         <v>55</v>
       </c>
@@ -2894,12 +2894,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>56</v>
@@ -2926,7 +2926,7 @@
         <v>61</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M29" s="16" t="s">
         <v>88</v>
@@ -2944,17 +2944,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
       <c r="H30" s="15" t="s">
         <v>67</v>
       </c>
@@ -2964,28 +2964,28 @@
       <c r="J30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="27"/>
+      <c r="L30" s="28"/>
       <c r="M30" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="N30" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="N30" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="O30" s="27"/>
-      <c r="P30" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q30" s="27"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="28"/>
+      <c r="P30" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>67</v>
@@ -2995,7 +2995,7 @@
         <v>73</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>67</v>
@@ -3010,7 +3010,7 @@
         <v>67</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>68</v>
@@ -3019,7 +3019,7 @@
         <v>68</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>67</v>
@@ -3028,7 +3028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="H34" s="7"/>
@@ -3058,80 +3058,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.875" style="8" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="3.765625" customWidth="1"/>
+    <col min="2" max="2" width="7.15234375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" style="8" customWidth="1"/>
+    <col min="4" max="5" width="7.15234375" style="8" customWidth="1"/>
     <col min="6" max="6" width="13" style="8" customWidth="1"/>
     <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="13.23046875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.4609375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.84375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.23046875" style="8" customWidth="1"/>
     <col min="12" max="12" width="8" style="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.765625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" s="30"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>91</v>
       </c>
@@ -3145,30 +3145,30 @@
         <v>99</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" s="17" t="s">
         <v>92</v>
       </c>
@@ -3182,30 +3182,30 @@
         <v>100</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>93</v>
       </c>
@@ -3219,30 +3219,30 @@
         <v>101</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="17" t="s">
         <v>94</v>
       </c>
@@ -3256,30 +3256,30 @@
         <v>101</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" s="17" t="s">
         <v>95</v>
       </c>
@@ -3293,30 +3293,30 @@
         <v>101</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" s="17" t="s">
         <v>96</v>
       </c>
@@ -3330,30 +3330,30 @@
         <v>101</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>97</v>
       </c>
@@ -3367,30 +3367,30 @@
         <v>101</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" s="17" t="s">
         <v>98</v>
       </c>
@@ -3404,30 +3404,30 @@
         <v>102</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" s="17" t="s">
         <v>113</v>
       </c>
@@ -3438,33 +3438,33 @@
         <v>122</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" s="17" t="s">
         <v>114</v>
       </c>
@@ -3475,33 +3475,33 @@
         <v>123</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" s="17" t="s">
         <v>115</v>
       </c>
@@ -3512,33 +3512,33 @@
         <v>124</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" s="17" t="s">
         <v>116</v>
       </c>
@@ -3549,33 +3549,33 @@
         <v>125</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>193</v>
+        <v>180</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" s="17" t="s">
         <v>117</v>
       </c>
@@ -3589,30 +3589,30 @@
         <v>120</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>118</v>
       </c>
@@ -3626,30 +3626,30 @@
         <v>101</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="17" t="s">
         <v>119</v>
       </c>
@@ -3663,30 +3663,30 @@
         <v>121</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="17" t="s">
         <v>129</v>
       </c>
@@ -3697,33 +3697,33 @@
         <v>131</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="17" t="s">
         <v>130</v>
       </c>
@@ -3734,33 +3734,33 @@
         <v>103</v>
       </c>
       <c r="E20" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>170</v>
-      </c>
       <c r="H20" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>134</v>
       </c>
@@ -3771,33 +3771,33 @@
         <v>135</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
         <v>137</v>
       </c>
@@ -3808,33 +3808,33 @@
         <v>103</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K22" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="17" t="s">
         <v>138</v>
       </c>
@@ -3845,33 +3845,33 @@
         <v>141</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="5">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K23" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L23" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="17" t="s">
         <v>139</v>
       </c>
@@ -3882,33 +3882,33 @@
         <v>142</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K24" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
         <v>140</v>
       </c>
@@ -3919,33 +3919,33 @@
         <v>143</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G25" s="5">
         <v>0</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K25" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="17" t="s">
         <v>146</v>
       </c>
@@ -3953,22 +3953,22 @@
         <v>147</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="5">
         <v>1</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>57</v>
@@ -3977,12 +3977,12 @@
         <v>57</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="17" t="s">
         <v>148</v>
       </c>
@@ -3990,22 +3990,22 @@
         <v>149</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G27" s="5">
         <v>1</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>57</v>
@@ -4014,139 +4014,139 @@
         <v>57</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F31" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H30" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I31" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J31" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="K30" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F31" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="K31" s="19"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F32" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="I32" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J32" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F32" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
+      <c r="I33" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J33" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I33" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="J33" s="21" t="s">
-        <v>222</v>
-      </c>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I34" s="19"/>
       <c r="J34" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I35" s="19"/>
       <c r="J35" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K35" s="19"/>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I36" s="19"/>
       <c r="J36" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K36" s="19"/>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I37" s="19"/>
       <c r="J37" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K37" s="19"/>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I38" s="19"/>
       <c r="J38" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K38" s="19"/>
     </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I39" s="19"/>
       <c r="J39" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K39" s="19"/>
     </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I40" s="19"/>
       <c r="J40" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K40" s="19"/>
     </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -4163,4 +4163,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248AD155-3170-4681-A3AD-1C78D821E936}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="3.4609375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>29</v>
+      </c>
+      <c r="D1">
+        <v>28</v>
+      </c>
+      <c r="E1">
+        <v>27</v>
+      </c>
+      <c r="F1">
+        <v>26</v>
+      </c>
+      <c r="G1">
+        <v>25</v>
+      </c>
+      <c r="H1">
+        <v>24</v>
+      </c>
+      <c r="I1">
+        <v>23</v>
+      </c>
+      <c r="J1">
+        <v>22</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="L1">
+        <v>20</v>
+      </c>
+      <c r="M1">
+        <v>19</v>
+      </c>
+      <c r="N1">
+        <v>18</v>
+      </c>
+      <c r="O1">
+        <v>17</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>15</v>
+      </c>
+      <c r="R1">
+        <v>14</v>
+      </c>
+      <c r="S1">
+        <v>13</v>
+      </c>
+      <c r="T1">
+        <v>12</v>
+      </c>
+      <c r="U1">
+        <v>11</v>
+      </c>
+      <c r="V1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>9</v>
+      </c>
+      <c r="X1">
+        <v>8</v>
+      </c>
+      <c r="Y1">
+        <v>7</v>
+      </c>
+      <c r="Z1">
+        <v>6</v>
+      </c>
+      <c r="AA1">
+        <v>5</v>
+      </c>
+      <c r="AB1">
+        <v>4</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>2</v>
+      </c>
+      <c r="AE1">
+        <v>1</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2">
+        <v>13</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>10</v>
+      </c>
+      <c r="P2">
+        <v>9</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>3</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/数据通路表、控制信号取值表.xlsx
+++ b/数据通路表、控制信号取值表.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\cpu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haharen/Documents/School/大二下/cpu/cpu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3E329A-0128-419F-A828-E185A7449286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56582E34-5ABD-654B-8BE5-E5CD07F06C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2070" windowWidth="21585" windowHeight="11715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数据通路表(含控制信号)" sheetId="1" r:id="rId1"/>
     <sheet name="控制信号取值表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="详细设计" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="346">
   <si>
     <t>所属单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -990,6 +991,424 @@
   </si>
   <si>
     <t>NPC_JALR:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：以表格的形式列出各个部件的接口信号、位宽、功能描述等，并结合图、表、核心代码等形象化工具和手段，详细描述各个部件的关键实现。</t>
+  </si>
+  <si>
+    <t>信号名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前PC值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取ALU计算值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in/out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取跳转偏移量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择NPC所执行的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一条指令的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC+4，用于写回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前PC地址</t>
+  </si>
+  <si>
+    <t>获取npc的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">out </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指令的opcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指令的funct3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指令的funct7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生SEXT部件的控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生NPC部件的控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生ALU部件的控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生ALU部件的输入选择信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制RF部件的写入使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制DRAM部件的写入使能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产生RF部件的输入选择信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取未扩展的立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出已扩展的立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取写入使能信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取输入信号1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取输入信号2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待写入寄存器号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待写入数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出读取的数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出读取的数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待操作数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待操作数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出计算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取待操作地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RF </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时钟信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取写入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rdo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出访存结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC关键：获取下一条指令的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC关键：产生指令的地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IROM关键：获取实际指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controller关键：产生各个控制信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEXT关键：产生立即数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF关键：正确读写寄存器堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALU关键：进行逻辑运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAM关键：正确读写数据存储器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：以表格的形式列出所有与单周期不同的部件的接口信号、位宽、功能描述等，并结合图、表、核心代码等形象化工具和手段，详细描述这些部件的关键实现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_RE1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF数据1的读信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_RE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF数据2的读信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC选择信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMP_detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMP_suspend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data_Hazard_Detector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rs2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入数据1的寄存器号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写入数据2的寄存器号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否因为跳转指令而停止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_reg_re1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_reg_re2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF数据2的读信号（ID阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF数据1的读信号（ID阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_EX_rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写回寄存器号（EX阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_MEM_rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写回寄存器号（MEM阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_EX_rf_we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写使能（EX阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX_MEM_rf_we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写使能（MEM阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_WB_rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM_WB_rf_we</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写回寄存器号（WB阶段）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RF的写使能（WB阶段）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -997,7 +1416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1040,6 +1459,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1142,35 +1568,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1179,16 +1593,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1197,28 +1602,13 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1233,14 +1623,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1558,93 +1951,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.4609375" customWidth="1"/>
-    <col min="2" max="2" width="10.4609375" customWidth="1"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="8.84375" customWidth="1"/>
-    <col min="7" max="7" width="7.3828125" customWidth="1"/>
-    <col min="8" max="8" width="6.765625" customWidth="1"/>
-    <col min="9" max="9" width="16.15234375" customWidth="1"/>
-    <col min="10" max="10" width="16.61328125" customWidth="1"/>
-    <col min="11" max="11" width="15.765625" customWidth="1"/>
-    <col min="12" max="12" width="10.84375" customWidth="1"/>
-    <col min="13" max="13" width="25.4609375" customWidth="1"/>
-    <col min="14" max="14" width="7.3828125" customWidth="1"/>
+    <col min="4" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="6.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="13" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="7.33203125" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="7.15234375" customWidth="1"/>
-    <col min="17" max="17" width="7.84375" customWidth="1"/>
+    <col min="16" max="16" width="7.1640625" customWidth="1"/>
+    <col min="17" max="17" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:17">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="29"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="2:17">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29" t="s">
+      <c r="O3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="29"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="2:17">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,10 +2047,10 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1690,1348 +2083,1348 @@
       <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:17">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="2:17">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="2:17">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="M7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:17">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="15" t="s">
+      <c r="M8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="2:17">
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="J9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="2:17">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O10" s="15" t="s">
+      <c r="O10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:17">
+      <c r="B11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="K11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="15" t="s">
+      <c r="L11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="15" t="s">
+      <c r="O11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:17">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="2:17">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O13" s="15" t="s">
+      <c r="O13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="Q13" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="2:17">
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="15" t="s">
+      <c r="M14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="P14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="Q14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:17">
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="2:17">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O16" s="15" t="s">
+      <c r="O16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="Q16" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:17">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="L17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="18" t="s">
+      <c r="M17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O17" s="15" t="s">
+      <c r="O17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:17">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="L18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="18" t="s">
+      <c r="M18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O18" s="15" t="s">
+      <c r="O18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="Q18" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="2:17">
+      <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L19" s="15" t="s">
+      <c r="L19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="15" t="s">
+      <c r="O19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="Q19" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="2:17">
+      <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L20" s="15" t="s">
+      <c r="L20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="15" t="s">
+      <c r="O20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="Q20" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:17">
+      <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="15" t="s">
+      <c r="L21" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="M21" s="15" t="s">
+      <c r="M21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O21" s="15" t="s">
+      <c r="O21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="2:17">
+      <c r="B22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O22" s="15" t="s">
+      <c r="O22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:17">
+      <c r="B23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="15" t="s">
+      <c r="O23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="Q23" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="2:17">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="15" t="s">
+      <c r="O24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="Q24" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="2:17">
+      <c r="B25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="15" t="s">
+      <c r="K25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M25" s="15" t="s">
+      <c r="M25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="15" t="s">
+      <c r="O25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="Q25" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="2:17">
+      <c r="B26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="15" t="s">
+      <c r="K26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="M26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O26" s="15" t="s">
+      <c r="O26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="Q26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:17">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="Q27" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="2:17" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:17" s="11" customFormat="1">
+      <c r="B28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L28" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="O28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="P28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="Q28" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="66" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="K29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="Q29" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B30" s="4" t="s">
+    <row r="30" spans="2:17">
+      <c r="B30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="15" t="s">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="J30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K30" s="26" t="s">
+      <c r="K30" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="5" t="s">
+      <c r="L30" s="16"/>
+      <c r="M30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N30" s="26" t="s">
+      <c r="N30" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="26" t="s">
+      <c r="O30" s="16"/>
+      <c r="P30" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="Q30" s="28"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B31" s="4" t="s">
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="J31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="H34" s="7"/>
+    <row r="34" spans="2:8">
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="H34" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3056,1100 +3449,1073 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:N42"/>
+  <dimension ref="B2:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.765625" customWidth="1"/>
-    <col min="2" max="2" width="7.15234375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" style="8" customWidth="1"/>
-    <col min="4" max="5" width="7.15234375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.23046875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.4609375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.84375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.23046875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="7.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:14">
+      <c r="B2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="30"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="10" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B4" s="17" t="s">
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="17" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="17" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="17" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="17" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="17" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="17" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="17" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="B13" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="17" t="s">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K14" s="18" t="s">
+      <c r="K14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="17" t="s">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="17" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K16" s="18" t="s">
+      <c r="K16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="17" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="17" t="s">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B20" s="17" t="s">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K20" s="18" t="s">
+      <c r="K20" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B21" s="17" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="1">
         <v>0</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="K21" s="18" t="s">
+      <c r="K21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B22" s="17" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B23" s="17" t="s">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K23" s="18" t="s">
+      <c r="K23" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B24" s="17" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="1">
         <v>0</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="K24" s="18" t="s">
+      <c r="K24" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B25" s="17" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="K25" s="18" t="s">
+      <c r="K25" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B26" s="17" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="17" t="s">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F29" s="8" t="s">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="F29" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="I29" s="19" t="s">
+      <c r="I29" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="J29" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F30" s="8" t="s">
+    <row r="30" spans="2:14">
+      <c r="F30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F31" s="8" t="s">
+    <row r="31" spans="2:14">
+      <c r="F31" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I31" s="19" t="s">
+      <c r="I31" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="K31" s="19"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F32" s="8" t="s">
+    </row>
+    <row r="32" spans="2:14">
+      <c r="F32" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H32" s="24" t="s">
+      <c r="H32" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="K32" s="19"/>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I33" s="19" t="s">
+    </row>
+    <row r="33" spans="9:10">
+      <c r="I33" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="K33" s="19"/>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I34" s="19"/>
-      <c r="J34" s="22" t="s">
+    </row>
+    <row r="34" spans="9:10">
+      <c r="J34" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="K34" s="19"/>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I35" s="19"/>
-      <c r="J35" s="22" t="s">
+    </row>
+    <row r="35" spans="9:10">
+      <c r="J35" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="K35" s="19"/>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I36" s="19"/>
-      <c r="J36" s="22" t="s">
+    </row>
+    <row r="36" spans="9:10">
+      <c r="J36" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="K36" s="19"/>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I37" s="19"/>
-      <c r="J37" s="22" t="s">
+    </row>
+    <row r="37" spans="9:10">
+      <c r="J37" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K37" s="19"/>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I38" s="19"/>
-      <c r="J38" s="22" t="s">
+    </row>
+    <row r="38" spans="9:10">
+      <c r="J38" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K38" s="19"/>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I39" s="19"/>
-      <c r="J39" s="22" t="s">
+    </row>
+    <row r="39" spans="9:10">
+      <c r="J39" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K39" s="19"/>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I40" s="19"/>
-      <c r="J40" s="22" t="s">
+    </row>
+    <row r="40" spans="9:10">
+      <c r="J40" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="19"/>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.35">
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4173,12 +4539,12 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32">
       <c r="A1">
         <v>31</v>
       </c>
@@ -4276,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>24</v>
       </c>
@@ -4357,4 +4723,1399 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5BD9DA-2439-514D-8845-1160F0429489}">
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:P32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" customWidth="1"/>
+    <col min="16" max="16" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="L1" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>247</v>
+      </c>
+      <c r="N2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" t="s">
+        <v>269</v>
+      </c>
+      <c r="M4" t="s">
+        <v>248</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" t="s">
+        <v>269</v>
+      </c>
+      <c r="M5" t="s">
+        <v>248</v>
+      </c>
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" t="s">
+        <v>269</v>
+      </c>
+      <c r="M6" t="s">
+        <v>253</v>
+      </c>
+      <c r="N6" t="s">
+        <v>153</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M7" t="s">
+        <v>253</v>
+      </c>
+      <c r="N7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>255</v>
+      </c>
+      <c r="L8" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>257</v>
+      </c>
+      <c r="L9" t="s">
+        <v>269</v>
+      </c>
+      <c r="M9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N9" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="L10" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" t="s">
+        <v>253</v>
+      </c>
+      <c r="N10" t="s">
+        <v>163</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" t="s">
+        <v>269</v>
+      </c>
+      <c r="M11" t="s">
+        <v>253</v>
+      </c>
+      <c r="N11" t="s">
+        <v>159</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" t="s">
+        <v>253</v>
+      </c>
+      <c r="N12" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>262</v>
+      </c>
+      <c r="L13" t="s">
+        <v>269</v>
+      </c>
+      <c r="M13" t="s">
+        <v>253</v>
+      </c>
+      <c r="N13" t="s">
+        <v>314</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>264</v>
+      </c>
+      <c r="L14" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" t="s">
+        <v>253</v>
+      </c>
+      <c r="N14" t="s">
+        <v>316</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>263</v>
+      </c>
+      <c r="L15" t="s">
+        <v>269</v>
+      </c>
+      <c r="M15" t="s">
+        <v>253</v>
+      </c>
+      <c r="N15" t="s">
+        <v>318</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>244</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" t="s">
+        <v>243</v>
+      </c>
+      <c r="P17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>267</v>
+      </c>
+      <c r="L18" t="s">
+        <v>320</v>
+      </c>
+      <c r="M18" t="s">
+        <v>248</v>
+      </c>
+      <c r="N18" t="s">
+        <v>266</v>
+      </c>
+      <c r="O18">
+        <v>32</v>
+      </c>
+      <c r="P18" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" t="s">
+        <v>320</v>
+      </c>
+      <c r="M19" t="s">
+        <v>253</v>
+      </c>
+      <c r="N19" t="s">
+        <v>322</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>247</v>
+      </c>
+      <c r="N21" t="s">
+        <v>242</v>
+      </c>
+      <c r="O21" t="s">
+        <v>243</v>
+      </c>
+      <c r="P21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" t="s">
+        <v>324</v>
+      </c>
+      <c r="M22" t="s">
+        <v>248</v>
+      </c>
+      <c r="N22" t="s">
+        <v>325</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>271</v>
+      </c>
+      <c r="L23" t="s">
+        <v>324</v>
+      </c>
+      <c r="M23" t="s">
+        <v>248</v>
+      </c>
+      <c r="N23" t="s">
+        <v>326</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>272</v>
+      </c>
+      <c r="L24" t="s">
+        <v>324</v>
+      </c>
+      <c r="M24" t="s">
+        <v>248</v>
+      </c>
+      <c r="N24" t="s">
+        <v>322</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>273</v>
+      </c>
+      <c r="L25" t="s">
+        <v>324</v>
+      </c>
+      <c r="M25" t="s">
+        <v>248</v>
+      </c>
+      <c r="N25" t="s">
+        <v>330</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s">
+        <v>324</v>
+      </c>
+      <c r="M26" t="s">
+        <v>248</v>
+      </c>
+      <c r="N26" t="s">
+        <v>331</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>278</v>
+      </c>
+      <c r="L27" t="s">
+        <v>324</v>
+      </c>
+      <c r="M27" t="s">
+        <v>248</v>
+      </c>
+      <c r="N27" t="s">
+        <v>338</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>324</v>
+      </c>
+      <c r="M28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N28" t="s">
+        <v>334</v>
+      </c>
+      <c r="O28">
+        <v>5</v>
+      </c>
+      <c r="P28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>269</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s">
+        <v>324</v>
+      </c>
+      <c r="M29" t="s">
+        <v>248</v>
+      </c>
+      <c r="N29" t="s">
+        <v>336</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>324</v>
+      </c>
+      <c r="M30" t="s">
+        <v>248</v>
+      </c>
+      <c r="N30" t="s">
+        <v>340</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B31" t="s">
+        <v>253</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>279</v>
+      </c>
+      <c r="L31" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" t="s">
+        <v>248</v>
+      </c>
+      <c r="N31" t="s">
+        <v>342</v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>308</v>
+      </c>
+      <c r="L32" t="s">
+        <v>324</v>
+      </c>
+      <c r="M32" t="s">
+        <v>248</v>
+      </c>
+      <c r="N32" t="s">
+        <v>343</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" t="s">
+        <v>253</v>
+      </c>
+      <c r="C36" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>284</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" t="s">
+        <v>285</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" t="s">
+        <v>251</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
+      </c>
+      <c r="E50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>32</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" t="s">
+        <v>261</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>32</v>
+      </c>
+      <c r="E57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C58" t="s">
+        <v>284</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>32</v>
+      </c>
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D60">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>